--- a/Bussab.xlsx
+++ b/Bussab.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AED03E-99B0-4637-AEC6-3BB1E8AB6C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -83,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +153,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,9 +205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +239,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,22 +484,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -492,7 +537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -512,7 +557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -532,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -544,13 +589,13 @@
         <v>5.73</v>
       </c>
       <c r="E5" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -562,13 +607,13 @@
         <v>6.26</v>
       </c>
       <c r="E6" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -588,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -606,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -624,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -644,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -656,13 +701,13 @@
         <v>7.44</v>
       </c>
       <c r="E11" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -676,13 +721,13 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="E12" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -694,13 +739,13 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="E13" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -718,7 +763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -738,7 +783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -758,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -770,13 +815,13 @@
         <v>9.35</v>
       </c>
       <c r="E17" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -790,13 +835,13 @@
         <v>9.77</v>
       </c>
       <c r="E18" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -810,13 +855,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E19" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -828,13 +873,13 @@
         <v>10.53</v>
       </c>
       <c r="E20" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -852,7 +897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -866,13 +911,13 @@
         <v>11.06</v>
       </c>
       <c r="E22" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -890,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -908,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -928,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -948,12 +993,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -968,25 +1013,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5">
         <v>13.85</v>
       </c>
       <c r="E28" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1000,13 +1045,13 @@
         <v>14.69</v>
       </c>
       <c r="E29" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1020,13 +1065,13 @@
         <v>14.71</v>
       </c>
       <c r="E30" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1040,13 +1085,13 @@
         <v>15.99</v>
       </c>
       <c r="E31" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1064,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1084,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1098,13 +1143,13 @@
         <v>17.260000000000002</v>
       </c>
       <c r="E34" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1116,13 +1161,13 @@
         <v>18.75</v>
       </c>
       <c r="E35" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1136,13 +1181,13 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E36" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1169,19 +1214,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1268,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1277,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1286,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>

--- a/Bussab.xlsx
+++ b/Bussab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AED03E-99B0-4637-AEC6-3BB1E8AB6C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401561C-7C76-4D45-9F4F-CEBE90823D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Capital</t>
   </si>
   <si>
-    <t>Outro</t>
-  </si>
-  <si>
     <t>Proced</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Capital / Interior / Outro</t>
+  </si>
+  <si>
+    <t>Outra</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>26</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>46</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1282,19 +1282,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
